--- a/data/trans_orig/P05A03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6174401-AD42-40AD-AFF9-289E29F07AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{764A9004-7A77-4969-BC4B-7AA310531F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{202E138E-C9AC-4280-AA4C-CBAFE9EC3710}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37289309-C3D6-4F4C-94E2-7F397D2A7A41}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="831">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,35%)</t>
   </si>
@@ -77,2385 +77,2385 @@
     <t>85,64%</t>
   </si>
   <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
   </si>
   <si>
     <t>82,78%</t>
   </si>
   <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>84,24%</t>
   </si>
   <si>
-    <t>80,79%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2015 (Tasa respuesta: 99,18%)</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
     <t>0,54%</t>
   </si>
   <si>
@@ -2465,9 +2465,6 @@
     <t>1,31%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
     <t>0,79%</t>
   </si>
   <si>
@@ -2526,9 +2523,6 @@
   </si>
   <si>
     <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
   </si>
   <si>
     <t>2,62%</t>
@@ -2949,7 +2943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA6A686-1E1C-43AD-B07A-9F4CCF128EDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11239DAF-7D76-4CC8-A9D0-C06119C0366E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3414,10 +3408,10 @@
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3467,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3485,13 +3479,13 @@
         <v>313217</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>329</v>
@@ -3500,13 +3494,13 @@
         <v>329389</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>633</v>
@@ -3515,13 +3509,13 @@
         <v>642606</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3530,13 @@
         <v>4726</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3554,10 +3548,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3569,10 +3563,10 @@
         <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3581,13 @@
         <v>903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3602,13 +3596,13 @@
         <v>1012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3617,13 +3611,13 @@
         <v>1915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,7 +3673,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3691,13 +3685,13 @@
         <v>307930</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>342</v>
@@ -3706,13 +3700,13 @@
         <v>327899</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>655</v>
@@ -3721,13 +3715,13 @@
         <v>635828</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3736,13 @@
         <v>35643</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -3757,13 +3751,13 @@
         <v>36023</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -3772,13 +3766,13 @@
         <v>71665</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3787,13 @@
         <v>11568</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -3808,13 +3802,13 @@
         <v>7535</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -3823,13 +3817,13 @@
         <v>19102</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,7 +3879,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3897,13 +3891,13 @@
         <v>144734</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>136</v>
@@ -3912,13 +3906,13 @@
         <v>142464</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>284</v>
@@ -3927,13 +3921,13 @@
         <v>287198</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3942,13 @@
         <v>37973</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -3963,13 +3957,13 @@
         <v>48173</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>83</v>
@@ -3978,13 +3972,13 @@
         <v>86146</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3993,13 @@
         <v>18205</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -4014,13 +4008,13 @@
         <v>16037</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -4029,13 +4023,13 @@
         <v>34243</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,7 +4085,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4103,13 +4097,13 @@
         <v>249993</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>241</v>
@@ -4118,13 +4112,13 @@
         <v>247942</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>488</v>
@@ -4133,13 +4127,13 @@
         <v>497935</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4148,13 @@
         <v>20818</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -4169,13 +4163,13 @@
         <v>29179</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -4184,13 +4178,13 @@
         <v>49997</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,10 +4202,10 @@
         <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4220,13 +4214,13 @@
         <v>1023</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4235,13 +4229,13 @@
         <v>1023</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,7 +4291,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4309,13 +4303,13 @@
         <v>557881</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>579</v>
@@ -4324,13 +4318,13 @@
         <v>596703</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>1119</v>
@@ -4339,13 +4333,13 @@
         <v>1154584</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4354,13 @@
         <v>45755</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -4375,13 +4369,13 @@
         <v>29098</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>76</v>
@@ -4390,13 +4384,13 @@
         <v>74853</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,10 +4405,10 @@
         <v>8670</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>192</v>
@@ -4545,13 +4539,13 @@
         <v>1101659</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4560,13 @@
         <v>160618</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H33" s="7">
         <v>180</v>
@@ -4581,13 +4575,13 @@
         <v>192836</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M33" s="7">
         <v>342</v>
@@ -4596,13 +4590,13 @@
         <v>353454</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4611,13 @@
         <v>27646</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -4632,13 +4626,13 @@
         <v>30414</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M34" s="7">
         <v>59</v>
@@ -4647,13 +4641,13 @@
         <v>58060</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4715,13 @@
         <v>2684860</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H36" s="7">
         <v>2703</v>
@@ -4736,13 +4730,13 @@
         <v>2757525</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M36" s="7">
         <v>5335</v>
@@ -4751,13 +4745,13 @@
         <v>5442386</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4766,13 @@
         <v>475385</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H37" s="7">
         <v>483</v>
@@ -4787,13 +4781,13 @@
         <v>505726</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M37" s="7">
         <v>952</v>
@@ -4802,13 +4796,13 @@
         <v>981111</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4817,13 @@
         <v>89789</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H38" s="7">
         <v>94</v>
@@ -4838,13 +4832,13 @@
         <v>98197</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M38" s="7">
         <v>182</v>
@@ -4853,13 +4847,13 @@
         <v>187986</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,7 +4909,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4939,7 +4933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7026A125-1A4E-4A7E-A6EC-0621C1258541}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D965A841-4F43-424F-9B32-BE58F534B46A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4956,7 +4950,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5061,39 +5055,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,39 +5100,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,39 +5145,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,39 +5190,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5239,13 @@
         <v>384054</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>386</v>
@@ -5260,13 +5254,13 @@
         <v>421540</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>750</v>
@@ -5275,13 +5269,13 @@
         <v>805594</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5290,13 @@
         <v>94659</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -5311,13 +5305,13 @@
         <v>78569</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>158</v>
@@ -5326,13 +5320,13 @@
         <v>173229</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5341,13 @@
         <v>25861</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5362,13 +5356,13 @@
         <v>15701</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>277</v>
+        <v>111</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -5377,13 +5371,13 @@
         <v>41562</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,7 +5433,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5451,13 +5445,13 @@
         <v>310332</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H12" s="7">
         <v>294</v>
@@ -5466,13 +5460,13 @@
         <v>314890</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M12" s="7">
         <v>599</v>
@@ -5481,13 +5475,13 @@
         <v>625222</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5496,13 @@
         <v>9855</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5517,13 +5511,13 @@
         <v>21113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -5532,13 +5526,13 @@
         <v>30968</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5547,13 @@
         <v>2908</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5568,13 +5562,13 @@
         <v>3951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -5583,13 +5577,13 @@
         <v>6859</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,7 +5639,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5657,13 +5651,13 @@
         <v>581035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>515</v>
@@ -5672,13 +5666,13 @@
         <v>552466</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>1059</v>
@@ -5687,13 +5681,13 @@
         <v>1133500</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5702,13 @@
         <v>61622</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -5723,13 +5717,13 @@
         <v>81078</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>131</v>
@@ -5738,13 +5732,13 @@
         <v>142700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5753,13 @@
         <v>11386</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -5774,13 +5768,13 @@
         <v>20872</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -5789,13 +5783,13 @@
         <v>32258</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>331</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,7 +5845,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6057,7 +6051,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6138,7 +6132,7 @@
         <v>371</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>372</v>
@@ -6171,13 +6165,13 @@
         <v>4049</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -6186,13 +6180,13 @@
         <v>1731</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -6201,10 +6195,10 @@
         <v>5780</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>381</v>
@@ -6263,7 +6257,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6326,7 +6320,7 @@
         <v>20041</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>391</v>
@@ -6347,7 +6341,7 @@
         <v>394</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>395</v>
+        <v>67</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -6356,13 +6350,13 @@
         <v>49442</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6371,13 @@
         <v>4690</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -6398,7 +6392,7 @@
         <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>112</v>
+        <v>401</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -6407,13 +6401,13 @@
         <v>7565</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6475,13 @@
         <v>660132</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H32" s="7">
         <v>642</v>
@@ -6496,13 +6490,13 @@
         <v>699539</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M32" s="7">
         <v>1248</v>
@@ -6511,13 +6505,13 @@
         <v>1359671</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6526,13 @@
         <v>100763</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H33" s="7">
         <v>98</v>
@@ -6547,13 +6541,13 @@
         <v>106495</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M33" s="7">
         <v>192</v>
@@ -6562,13 +6556,13 @@
         <v>207258</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6577,13 @@
         <v>14057</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>302</v>
+        <v>424</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>421</v>
+        <v>39</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -6598,13 +6592,13 @@
         <v>9494</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>87</v>
+        <v>302</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M34" s="7">
         <v>22</v>
@@ -6613,13 +6607,13 @@
         <v>23551</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>115</v>
+        <v>427</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>423</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,13 +6681,13 @@
         <v>2980987</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H36" s="7">
         <v>2846</v>
@@ -6702,13 +6696,13 @@
         <v>3069236</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M36" s="7">
         <v>5642</v>
@@ -6717,13 +6711,13 @@
         <v>6050223</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,13 +6732,13 @@
         <v>340515</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H37" s="7">
         <v>340</v>
@@ -6753,13 +6747,13 @@
         <v>367910</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>437</v>
+        <v>315</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M37" s="7">
         <v>658</v>
@@ -6768,13 +6762,13 @@
         <v>708425</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6783,13 @@
         <v>79654</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>442</v>
+        <v>381</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H38" s="7">
         <v>67</v>
@@ -6804,13 +6798,13 @@
         <v>73704</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>118</v>
+        <v>448</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>117</v>
+        <v>449</v>
       </c>
       <c r="M38" s="7">
         <v>139</v>
@@ -6819,13 +6813,13 @@
         <v>153357</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>244</v>
+        <v>450</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>447</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,7 +6875,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6905,7 +6899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA3BA69-FE82-4092-A15D-8BF80CEB2FF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE2E68D-8573-41B7-9C71-63DB5A20430B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6922,7 +6916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7029,13 +7023,13 @@
         <v>219159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
@@ -7044,13 +7038,13 @@
         <v>212569</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M4" s="7">
         <v>403</v>
@@ -7059,13 +7053,13 @@
         <v>431727</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,13 +7074,13 @@
         <v>54594</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>459</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H5" s="7">
         <v>55</v>
@@ -7095,13 +7089,13 @@
         <v>56548</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M5" s="7">
         <v>104</v>
@@ -7110,13 +7104,13 @@
         <v>111142</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>272</v>
+        <v>467</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,13 +7125,13 @@
         <v>11898</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -7146,13 +7140,13 @@
         <v>14385</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>356</v>
+        <v>474</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -7161,13 +7155,13 @@
         <v>26283</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>159</v>
+        <v>475</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7235,13 +7229,13 @@
         <v>339992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>472</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="H8" s="7">
         <v>331</v>
@@ -7250,13 +7244,13 @@
         <v>354927</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="M8" s="7">
         <v>653</v>
@@ -7265,13 +7259,13 @@
         <v>694919</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7286,13 +7280,13 @@
         <v>99626</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -7301,13 +7295,13 @@
         <v>98172</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M9" s="7">
         <v>184</v>
@@ -7316,13 +7310,13 @@
         <v>197799</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,13 +7331,13 @@
         <v>61855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>494</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -7352,13 +7346,13 @@
         <v>65875</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>108</v>
+        <v>437</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="M10" s="7">
         <v>117</v>
@@ -7367,13 +7361,13 @@
         <v>127730</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,7 +7423,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7441,13 +7435,13 @@
         <v>291555</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="H12" s="7">
         <v>306</v>
@@ -7456,13 +7450,13 @@
         <v>310055</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="M12" s="7">
         <v>612</v>
@@ -7471,13 +7465,13 @@
         <v>601610</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7492,13 +7486,13 @@
         <v>25318</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>507</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -7507,13 +7501,13 @@
         <v>22708</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -7522,13 +7516,13 @@
         <v>48026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7543,13 +7537,13 @@
         <v>795</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -7558,13 +7552,13 @@
         <v>3546</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>476</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -7573,13 +7567,13 @@
         <v>4341</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>323</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,7 +7629,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7647,13 +7641,13 @@
         <v>333281</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H16" s="7">
         <v>300</v>
@@ -7662,13 +7656,13 @@
         <v>324376</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>524</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>525</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>618</v>
@@ -7677,13 +7671,13 @@
         <v>657657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>527</v>
+        <v>405</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,13 +7692,13 @@
         <v>24336</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -7713,13 +7707,13 @@
         <v>45183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -7728,13 +7722,13 @@
         <v>69519</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>537</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,13 +7743,13 @@
         <v>8205</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -7764,13 +7758,13 @@
         <v>11500</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>541</v>
+        <v>394</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -7779,13 +7773,13 @@
         <v>19705</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,7 +7835,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7853,13 +7847,13 @@
         <v>178085</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H20" s="7">
         <v>190</v>
@@ -7868,13 +7862,13 @@
         <v>184938</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>550</v>
+        <v>506</v>
       </c>
       <c r="M20" s="7">
         <v>368</v>
@@ -7883,13 +7877,13 @@
         <v>363023</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7904,13 +7898,13 @@
         <v>32147</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -7919,13 +7913,13 @@
         <v>25516</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>438</v>
+        <v>554</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M21" s="7">
         <v>58</v>
@@ -7934,13 +7928,13 @@
         <v>57663</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>235</v>
+        <v>557</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>560</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7955,13 +7949,13 @@
         <v>989</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>562</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -7970,13 +7964,13 @@
         <v>8133</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>565</v>
+        <v>477</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -7985,13 +7979,13 @@
         <v>9122</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>567</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,7 +8041,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8059,13 +8053,13 @@
         <v>248225</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>570</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H24" s="7">
         <v>250</v>
@@ -8074,13 +8068,13 @@
         <v>259819</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>574</v>
+        <v>285</v>
       </c>
       <c r="M24" s="7">
         <v>494</v>
@@ -8089,13 +8083,13 @@
         <v>508045</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8104,13 @@
         <v>14898</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -8125,13 +8119,13 @@
         <v>12261</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>582</v>
+        <v>249</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -8140,13 +8134,13 @@
         <v>27158</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>584</v>
+        <v>110</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8164,10 +8158,10 @@
         <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8179,10 +8173,10 @@
         <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8194,10 +8188,10 @@
         <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8253,7 +8247,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8265,13 +8259,13 @@
         <v>520218</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H28" s="7">
         <v>506</v>
@@ -8280,13 +8274,13 @@
         <v>540487</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M28" s="7">
         <v>966</v>
@@ -8295,13 +8289,13 @@
         <v>1060705</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8310,13 @@
         <v>107661</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="H29" s="7">
         <v>104</v>
@@ -8331,13 +8325,13 @@
         <v>110859</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="M29" s="7">
         <v>198</v>
@@ -8346,13 +8340,13 @@
         <v>218520</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8361,13 @@
         <v>20271</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>607</v>
+        <v>369</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>351</v>
+        <v>598</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -8382,13 +8376,13 @@
         <v>32082</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>62</v>
+        <v>601</v>
       </c>
       <c r="M30" s="7">
         <v>48</v>
@@ -8397,13 +8391,13 @@
         <v>52353</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>246</v>
+        <v>603</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8471,13 +8465,13 @@
         <v>722075</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="H32" s="7">
         <v>694</v>
@@ -8486,13 +8480,13 @@
         <v>756816</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="M32" s="7">
         <v>1389</v>
@@ -8501,13 +8495,13 @@
         <v>1478891</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8522,13 +8516,13 @@
         <v>46121</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="H33" s="7">
         <v>55</v>
@@ -8537,13 +8531,13 @@
         <v>62085</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="M33" s="7">
         <v>100</v>
@@ -8552,13 +8546,13 @@
         <v>108206</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>513</v>
+        <v>620</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>627</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8573,13 +8567,13 @@
         <v>5505</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>112</v>
+        <v>622</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -8588,13 +8582,13 @@
         <v>976</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>168</v>
+        <v>522</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -8603,13 +8597,13 @@
         <v>6481</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>91</v>
+        <v>626</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8677,13 +8671,13 @@
         <v>2852589</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="H36" s="7">
         <v>2781</v>
@@ -8692,13 +8686,13 @@
         <v>2943986</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="M36" s="7">
         <v>5503</v>
@@ -8710,10 +8704,10 @@
         <v>17</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,13 +8722,13 @@
         <v>404701</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="H37" s="7">
         <v>403</v>
@@ -8743,13 +8737,13 @@
         <v>433332</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>352</v>
+        <v>494</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>131</v>
+        <v>592</v>
       </c>
       <c r="M37" s="7">
         <v>786</v>
@@ -8758,13 +8752,13 @@
         <v>838033</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8779,13 +8773,13 @@
         <v>109518</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>117</v>
+        <v>396</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H38" s="7">
         <v>127</v>
@@ -8794,13 +8788,13 @@
         <v>136497</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>251</v>
+        <v>645</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="M38" s="7">
         <v>226</v>
@@ -8809,13 +8803,13 @@
         <v>246015</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8871,7 +8865,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -8895,7 +8889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F101098-784E-42D7-8B27-67EED5A3552B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C46C12-1D6B-4833-9CBA-96CCD0D62E12}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8912,7 +8906,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9019,13 +9013,13 @@
         <v>256447</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="H4" s="7">
         <v>524</v>
@@ -9034,13 +9028,13 @@
         <v>264246</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="M4" s="7">
         <v>851</v>
@@ -9049,13 +9043,13 @@
         <v>520692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9070,13 +9064,13 @@
         <v>3851</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -9085,13 +9079,13 @@
         <v>7157</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>516</v>
+        <v>374</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -9103,10 +9097,10 @@
         <v>34</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>666</v>
+        <v>520</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9124,10 +9118,10 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9139,10 +9133,10 @@
         <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9154,10 +9148,10 @@
         <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>401</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9225,13 +9219,13 @@
         <v>464618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H8" s="7">
         <v>609</v>
@@ -9240,13 +9234,13 @@
         <v>474979</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="M8" s="7">
         <v>941</v>
@@ -9255,13 +9249,13 @@
         <v>939596</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9276,13 +9270,13 @@
         <v>44126</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -9291,13 +9285,13 @@
         <v>62247</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>683</v>
+        <v>595</v>
       </c>
       <c r="M9" s="7">
         <v>123</v>
@@ -9306,13 +9300,13 @@
         <v>106373</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9327,13 +9321,13 @@
         <v>5295</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>562</v>
+        <v>682</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -9342,13 +9336,13 @@
         <v>12454</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -9357,13 +9351,13 @@
         <v>17749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>692</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9419,7 +9413,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -9431,13 +9425,13 @@
         <v>292095</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="H12" s="7">
         <v>488</v>
@@ -9446,13 +9440,13 @@
         <v>335506</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="M12" s="7">
         <v>820</v>
@@ -9461,13 +9455,13 @@
         <v>627601</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9482,13 +9476,13 @@
         <v>15390</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>697</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>698</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -9497,13 +9491,13 @@
         <v>21243</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -9512,13 +9506,13 @@
         <v>36633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9533,13 +9527,13 @@
         <v>12669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -9551,10 +9545,10 @@
         <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>708</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>711</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -9563,13 +9557,13 @@
         <v>26489</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>711</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9625,7 +9619,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9637,13 +9631,13 @@
         <v>260752</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="H16" s="7">
         <v>484</v>
@@ -9652,13 +9646,13 @@
         <v>354908</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>717</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>719</v>
       </c>
       <c r="M16" s="7">
         <v>708</v>
@@ -9667,13 +9661,13 @@
         <v>615659</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>722</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9688,13 +9682,13 @@
         <v>53320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H17" s="7">
         <v>85</v>
@@ -9703,13 +9697,13 @@
         <v>55760</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="M17" s="7">
         <v>143</v>
@@ -9718,13 +9712,13 @@
         <v>109079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9739,13 +9733,13 @@
         <v>6936</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>194</v>
+        <v>728</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -9754,13 +9748,13 @@
         <v>14325</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>732</v>
+        <v>33</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>221</v>
+        <v>730</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -9769,13 +9763,13 @@
         <v>21260</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>733</v>
+        <v>281</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>170</v>
+        <v>731</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9831,7 +9825,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9843,13 +9837,13 @@
         <v>179642</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>458</v>
@@ -9858,13 +9852,13 @@
         <v>241521</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>736</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>738</v>
       </c>
       <c r="M20" s="7">
         <v>714</v>
@@ -9873,13 +9867,13 @@
         <v>421162</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>739</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9897,10 +9891,10 @@
         <v>353</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -9909,13 +9903,13 @@
         <v>16157</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>68</v>
+        <v>742</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>745</v>
+        <v>573</v>
       </c>
       <c r="M21" s="7">
         <v>56</v>
@@ -9924,13 +9918,13 @@
         <v>33263</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>315</v>
+        <v>744</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>746</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9948,10 +9942,10 @@
         <v>32</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -9960,13 +9954,13 @@
         <v>452</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -9975,13 +9969,13 @@
         <v>452</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10037,7 +10031,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -10049,13 +10043,13 @@
         <v>263935</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>755</v>
       </c>
       <c r="H24" s="7">
         <v>433</v>
@@ -10064,13 +10058,13 @@
         <v>258088</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>757</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>758</v>
       </c>
       <c r="M24" s="7">
         <v>787</v>
@@ -10079,13 +10073,13 @@
         <v>522023</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>760</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10100,7 +10094,7 @@
         <v>11165</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>760</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>761</v>
@@ -10118,10 +10112,10 @@
         <v>763</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>764</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>765</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -10130,13 +10124,13 @@
         <v>26075</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>766</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10151,13 +10145,13 @@
         <v>2123</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>768</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>769</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -10166,13 +10160,13 @@
         <v>1902</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>770</v>
+        <v>403</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -10181,13 +10175,13 @@
         <v>4025</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>277</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10243,7 +10237,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10255,13 +10249,13 @@
         <v>539673</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>772</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>773</v>
       </c>
       <c r="H28" s="7">
         <v>840</v>
@@ -10270,13 +10264,13 @@
         <v>717058</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>774</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>776</v>
       </c>
       <c r="M28" s="7">
         <v>1357</v>
@@ -10285,13 +10279,13 @@
         <v>1256731</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>429</v>
+        <v>775</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>777</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10306,13 +10300,13 @@
         <v>46977</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>779</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>780</v>
       </c>
       <c r="H29" s="7">
         <v>69</v>
@@ -10321,13 +10315,13 @@
         <v>52242</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>781</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>782</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -10336,13 +10330,13 @@
         <v>99219</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>784</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10357,13 +10351,13 @@
         <v>33962</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>786</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>787</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>788</v>
       </c>
       <c r="H30" s="7">
         <v>39</v>
@@ -10372,13 +10366,13 @@
         <v>28151</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>331</v>
+        <v>787</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>789</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>790</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -10387,10 +10381,10 @@
         <v>62113</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>791</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>792</v>
@@ -10464,10 +10458,10 @@
         <v>793</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>576</v>
+        <v>794</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H32" s="7">
         <v>978</v>
@@ -10476,13 +10470,13 @@
         <v>799574</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M32" s="7">
         <v>1698</v>
@@ -10491,13 +10485,13 @@
         <v>1612516</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10512,10 +10506,10 @@
         <v>40775</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>801</v>
+        <v>188</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>802</v>
@@ -10527,13 +10521,13 @@
         <v>55820</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>804</v>
-      </c>
       <c r="L33" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="M33" s="7">
         <v>104</v>
@@ -10542,13 +10536,13 @@
         <v>96595</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>280</v>
+        <v>517</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>159</v>
+        <v>475</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>536</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10578,13 +10572,13 @@
         <v>9041</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>808</v>
+        <v>391</v>
       </c>
       <c r="M34" s="7">
         <v>15</v>
@@ -10593,13 +10587,13 @@
         <v>13669</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>809</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10667,13 +10661,13 @@
         <v>3070101</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>812</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>813</v>
       </c>
       <c r="H36" s="7">
         <v>4814</v>
@@ -10682,13 +10676,13 @@
         <v>3445879</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>815</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>816</v>
       </c>
       <c r="M36" s="7">
         <v>7876</v>
@@ -10697,13 +10691,13 @@
         <v>6515980</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>818</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10718,13 +10712,13 @@
         <v>232710</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>821</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>822</v>
       </c>
       <c r="H37" s="7">
         <v>401</v>
@@ -10733,13 +10727,13 @@
         <v>285535</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>824</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>825</v>
       </c>
       <c r="M37" s="7">
         <v>641</v>
@@ -10748,13 +10742,13 @@
         <v>518245</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>826</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10769,13 +10763,13 @@
         <v>65613</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>828</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>830</v>
       </c>
       <c r="H38" s="7">
         <v>111</v>
@@ -10784,13 +10778,13 @@
         <v>80144</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="M38" s="7">
         <v>170</v>
@@ -10799,13 +10793,13 @@
         <v>145757</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10861,7 +10855,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{764A9004-7A77-4969-BC4B-7AA310531F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED1082B7-5ECC-4EE0-B2CA-729C4470B5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37289309-C3D6-4F4C-94E2-7F397D2A7A41}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50163846-F8FD-4964-8195-59F39DB24A85}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="821">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,35%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>85,64%</t>
   </si>
   <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>82,78%</t>
   </si>
   <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>84,24%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,28 +107,28 @@
     <t>13,43%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -140,2398 +140,2368 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>2,41%</t>
   </si>
 </sst>
 </file>
@@ -2943,7 +2913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11239DAF-7D76-4CC8-A9D0-C06119C0366E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CF0F47-262E-41D8-80B6-E9B5CE0DF83E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3408,10 +3378,10 @@
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,7 +3437,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3479,13 +3449,13 @@
         <v>313217</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>329</v>
@@ -3494,13 +3464,13 @@
         <v>329389</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>633</v>
@@ -3509,13 +3479,13 @@
         <v>642606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3500,13 @@
         <v>4726</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3548,10 +3518,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3563,10 +3533,10 @@
         <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3551,13 @@
         <v>903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3596,13 +3566,13 @@
         <v>1012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4835,10 +4805,10 @@
         <v>248</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M38" s="7">
         <v>182</v>
@@ -4847,13 +4817,13 @@
         <v>187986</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>253</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,7 +4879,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4933,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D965A841-4F43-424F-9B32-BE58F534B46A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D58A7AE-74B5-4C36-ABFF-0869F01640A8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4950,7 +4920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5055,39 +5025,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,39 +5070,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,39 +5115,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,39 +5160,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5209,13 @@
         <v>384054</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>386</v>
@@ -5254,13 +5224,13 @@
         <v>421540</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>750</v>
@@ -5269,13 +5239,13 @@
         <v>805594</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5260,13 @@
         <v>94659</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -5305,13 +5275,13 @@
         <v>78569</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>158</v>
@@ -5320,13 +5290,13 @@
         <v>173229</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5311,13 @@
         <v>25861</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5356,13 +5326,13 @@
         <v>15701</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -5371,13 +5341,13 @@
         <v>41562</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,7 +5403,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5445,13 +5415,13 @@
         <v>310332</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H12" s="7">
         <v>294</v>
@@ -5460,13 +5430,13 @@
         <v>314890</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M12" s="7">
         <v>599</v>
@@ -5475,13 +5445,13 @@
         <v>625222</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5466,13 @@
         <v>9855</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>117</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5511,13 +5481,13 @@
         <v>21113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -5526,13 +5496,13 @@
         <v>30968</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5517,13 @@
         <v>2908</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5562,13 +5532,13 @@
         <v>3951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -5577,13 +5547,13 @@
         <v>6859</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,13 +5621,13 @@
         <v>581035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>515</v>
@@ -5666,13 +5636,13 @@
         <v>552466</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>1059</v>
@@ -5681,13 +5651,13 @@
         <v>1133500</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5672,13 @@
         <v>61622</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -5717,13 +5687,13 @@
         <v>81078</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>131</v>
@@ -5732,13 +5702,13 @@
         <v>142700</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5723,13 @@
         <v>11386</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -5768,13 +5738,13 @@
         <v>20872</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>327</v>
+        <v>185</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -5783,13 +5753,13 @@
         <v>32258</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>80</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5827,13 @@
         <v>152570</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>333</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -5872,13 +5842,13 @@
         <v>153277</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>285</v>
@@ -5887,13 +5857,13 @@
         <v>305847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5878,13 @@
         <v>43345</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H21" s="7">
         <v>47</v>
@@ -5923,13 +5893,13 @@
         <v>47233</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M21" s="7">
         <v>88</v>
@@ -5938,13 +5908,13 @@
         <v>90579</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5929,13 @@
         <v>16703</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>351</v>
+        <v>277</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -5974,13 +5944,13 @@
         <v>19080</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -5989,13 +5959,13 @@
         <v>35784</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +6033,13 @@
         <v>259703</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H24" s="7">
         <v>263</v>
@@ -6078,13 +6048,13 @@
         <v>273211</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M24" s="7">
         <v>510</v>
@@ -6093,13 +6063,13 @@
         <v>532913</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>365</v>
+        <v>74</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6084,13 @@
         <v>10229</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>369</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6129,13 +6099,13 @@
         <v>4021</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -6144,13 +6114,13 @@
         <v>14250</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6135,13 @@
         <v>4049</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>367</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -6180,13 +6150,13 @@
         <v>1731</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -6195,13 +6165,13 @@
         <v>5780</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,13 +6239,13 @@
         <v>633164</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H28" s="7">
         <v>600</v>
@@ -6284,13 +6254,13 @@
         <v>654312</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M28" s="7">
         <v>1191</v>
@@ -6299,13 +6269,13 @@
         <v>1287475</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,13 +6290,13 @@
         <v>20041</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -6335,13 +6305,13 @@
         <v>29401</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>67</v>
+        <v>387</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -6350,13 +6320,13 @@
         <v>49442</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,13 +6341,13 @@
         <v>4690</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>399</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -6386,13 +6356,13 @@
         <v>2875</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -6401,13 +6371,13 @@
         <v>7565</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6445,13 @@
         <v>660132</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H32" s="7">
         <v>642</v>
@@ -6490,13 +6460,13 @@
         <v>699539</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="M32" s="7">
         <v>1248</v>
@@ -6505,13 +6475,13 @@
         <v>1359671</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,13 +6496,13 @@
         <v>100763</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H33" s="7">
         <v>98</v>
@@ -6541,13 +6511,13 @@
         <v>106495</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>419</v>
+        <v>318</v>
       </c>
       <c r="M33" s="7">
         <v>192</v>
@@ -6556,13 +6526,13 @@
         <v>207258</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,13 +6547,13 @@
         <v>14057</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>39</v>
+        <v>415</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -6592,13 +6562,13 @@
         <v>9494</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="M34" s="7">
         <v>22</v>
@@ -6607,13 +6577,13 @@
         <v>23551</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>427</v>
+        <v>197</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,13 +6651,13 @@
         <v>2980987</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="H36" s="7">
         <v>2846</v>
@@ -6696,13 +6666,13 @@
         <v>3069236</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="M36" s="7">
         <v>5642</v>
@@ -6711,13 +6681,13 @@
         <v>6050223</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,13 +6702,13 @@
         <v>340515</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H37" s="7">
         <v>340</v>
@@ -6747,13 +6717,13 @@
         <v>367910</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>315</v>
+        <v>431</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>441</v>
+        <v>353</v>
       </c>
       <c r="M37" s="7">
         <v>658</v>
@@ -6762,13 +6732,13 @@
         <v>708425</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,13 +6753,13 @@
         <v>79654</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>445</v>
+        <v>193</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="H38" s="7">
         <v>67</v>
@@ -6798,13 +6768,13 @@
         <v>73704</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>449</v>
+        <v>85</v>
       </c>
       <c r="M38" s="7">
         <v>139</v>
@@ -6813,13 +6783,13 @@
         <v>153357</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>450</v>
+        <v>246</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>116</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,7 +6845,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -6899,7 +6869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE2E68D-8573-41B7-9C71-63DB5A20430B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E726F9-A661-400F-984F-6DD0E29999EC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6916,7 +6886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7023,13 +6993,13 @@
         <v>219159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>455</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
@@ -7038,13 +7008,13 @@
         <v>212569</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>456</v>
+        <v>208</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="M4" s="7">
         <v>403</v>
@@ -7053,13 +7023,13 @@
         <v>431727</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7074,13 +7044,13 @@
         <v>54594</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>450</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="H5" s="7">
         <v>55</v>
@@ -7089,13 +7059,13 @@
         <v>56548</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>465</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="M5" s="7">
         <v>104</v>
@@ -7104,13 +7074,13 @@
         <v>111142</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7095,13 @@
         <v>11898</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -7140,13 +7110,13 @@
         <v>14385</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>292</v>
+        <v>461</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -7155,13 +7125,13 @@
         <v>26283</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>476</v>
+        <v>248</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7229,13 +7199,13 @@
         <v>339992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>465</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="H8" s="7">
         <v>331</v>
@@ -7244,13 +7214,13 @@
         <v>354927</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="M8" s="7">
         <v>653</v>
@@ -7259,13 +7229,13 @@
         <v>694919</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,13 +7250,13 @@
         <v>99626</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -7295,13 +7265,13 @@
         <v>98172</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="M9" s="7">
         <v>184</v>
@@ -7310,13 +7280,13 @@
         <v>197799</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7301,13 @@
         <v>61855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>495</v>
+        <v>431</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -7346,13 +7316,13 @@
         <v>65875</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="M10" s="7">
         <v>117</v>
@@ -7361,13 +7331,13 @@
         <v>127730</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,7 +7393,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7435,13 +7405,13 @@
         <v>291555</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="H12" s="7">
         <v>306</v>
@@ -7450,13 +7420,13 @@
         <v>310055</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>506</v>
+        <v>173</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="M12" s="7">
         <v>612</v>
@@ -7465,13 +7435,13 @@
         <v>601610</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7486,13 +7456,13 @@
         <v>25318</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>500</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -7501,13 +7471,13 @@
         <v>22708</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -7516,13 +7486,13 @@
         <v>48026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>516</v>
+        <v>314</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,13 +7507,13 @@
         <v>795</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -7552,13 +7522,13 @@
         <v>3546</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -7567,13 +7537,13 @@
         <v>4341</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,13 +7611,13 @@
         <v>333281</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>300</v>
@@ -7656,13 +7626,13 @@
         <v>324376</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>517</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>618</v>
@@ -7671,13 +7641,13 @@
         <v>657657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>520</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7692,13 +7662,13 @@
         <v>24336</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -7707,13 +7677,13 @@
         <v>45183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>535</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -7722,13 +7692,13 @@
         <v>69519</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,13 +7713,13 @@
         <v>8205</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>306</v>
+        <v>530</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>304</v>
+        <v>194</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -7758,13 +7728,13 @@
         <v>11500</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>394</v>
+        <v>532</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>533</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -7773,13 +7743,13 @@
         <v>19705</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7817,13 @@
         <v>178085</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H20" s="7">
         <v>190</v>
@@ -7862,13 +7832,13 @@
         <v>184938</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="M20" s="7">
         <v>368</v>
@@ -7877,13 +7847,13 @@
         <v>363023</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7868,13 @@
         <v>32147</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>551</v>
+        <v>338</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -7913,13 +7883,13 @@
         <v>25516</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M21" s="7">
         <v>58</v>
@@ -7928,13 +7898,13 @@
         <v>57663</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,13 +7919,13 @@
         <v>989</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>192</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -7964,13 +7934,13 @@
         <v>8133</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>477</v>
+        <v>558</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -7979,13 +7949,13 @@
         <v>9122</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8023,13 @@
         <v>248225</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>172</v>
+        <v>562</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H24" s="7">
         <v>250</v>
@@ -8068,13 +8038,13 @@
         <v>259819</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M24" s="7">
         <v>494</v>
@@ -8083,13 +8053,13 @@
         <v>508045</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8074,13 @@
         <v>14898</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -8119,13 +8089,13 @@
         <v>12261</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -8134,13 +8104,13 @@
         <v>27158</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>576</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,7 +8131,7 @@
         <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8176,7 +8146,7 @@
         <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>578</v>
+        <v>84</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8259,13 +8229,13 @@
         <v>520218</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>581</v>
+        <v>232</v>
       </c>
       <c r="H28" s="7">
         <v>506</v>
@@ -8274,13 +8244,13 @@
         <v>540487</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M28" s="7">
         <v>966</v>
@@ -8289,13 +8259,13 @@
         <v>1060705</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8280,13 @@
         <v>107661</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>590</v>
+        <v>26</v>
       </c>
       <c r="H29" s="7">
         <v>104</v>
@@ -8325,13 +8295,13 @@
         <v>110859</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M29" s="7">
         <v>198</v>
@@ -8340,13 +8310,13 @@
         <v>218520</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,13 +8331,13 @@
         <v>20271</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>369</v>
+        <v>593</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -8376,13 +8346,13 @@
         <v>32082</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M30" s="7">
         <v>48</v>
@@ -8391,13 +8361,13 @@
         <v>52353</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8465,13 +8435,13 @@
         <v>722075</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H32" s="7">
         <v>694</v>
@@ -8483,10 +8453,10 @@
         <v>148</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M32" s="7">
         <v>1389</v>
@@ -8495,13 +8465,13 @@
         <v>1478891</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8516,13 +8486,13 @@
         <v>46121</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>613</v>
+        <v>112</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H33" s="7">
         <v>55</v>
@@ -8531,13 +8501,13 @@
         <v>62085</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>616</v>
+        <v>459</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="M33" s="7">
         <v>100</v>
@@ -8546,13 +8516,13 @@
         <v>108206</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>555</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8567,13 +8537,13 @@
         <v>5505</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -8582,13 +8552,13 @@
         <v>976</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -8597,13 +8567,13 @@
         <v>6481</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8671,13 +8641,13 @@
         <v>2852589</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H36" s="7">
         <v>2781</v>
@@ -8686,13 +8656,13 @@
         <v>2943986</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="M36" s="7">
         <v>5503</v>
@@ -8704,10 +8674,10 @@
         <v>17</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>634</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8722,13 +8692,13 @@
         <v>404701</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="H37" s="7">
         <v>403</v>
@@ -8737,13 +8707,13 @@
         <v>433332</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>592</v>
+        <v>633</v>
       </c>
       <c r="M37" s="7">
         <v>786</v>
@@ -8752,13 +8722,13 @@
         <v>838033</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8773,13 +8743,13 @@
         <v>109518</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>642</v>
+        <v>195</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>396</v>
+        <v>85</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H38" s="7">
         <v>127</v>
@@ -8788,13 +8758,13 @@
         <v>136497</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>184</v>
+        <v>640</v>
       </c>
       <c r="M38" s="7">
         <v>226</v>
@@ -8803,13 +8773,13 @@
         <v>246015</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>646</v>
+        <v>329</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8865,7 +8835,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -8889,7 +8859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C46C12-1D6B-4833-9CBA-96CCD0D62E12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3B0596-66C9-4DC2-A7A3-6A9F09527FF0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8906,7 +8876,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9013,13 +8983,13 @@
         <v>256447</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H4" s="7">
         <v>524</v>
@@ -9028,13 +8998,13 @@
         <v>264246</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="M4" s="7">
         <v>851</v>
@@ -9043,13 +9013,13 @@
         <v>520692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9064,13 +9034,13 @@
         <v>3851</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>659</v>
+        <v>555</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>660</v>
+        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -9079,13 +9049,13 @@
         <v>7157</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>374</v>
+        <v>653</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>661</v>
+        <v>595</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -9097,10 +9067,10 @@
         <v>34</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>520</v>
+        <v>654</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9121,7 +9091,7 @@
         <v>166</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9136,7 +9106,7 @@
         <v>166</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9151,7 +9121,7 @@
         <v>166</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9219,13 +9189,13 @@
         <v>464618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="H8" s="7">
         <v>609</v>
@@ -9234,13 +9204,13 @@
         <v>474979</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="M8" s="7">
         <v>941</v>
@@ -9249,13 +9219,13 @@
         <v>939596</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>671</v>
+        <v>426</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9270,13 +9240,13 @@
         <v>44126</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -9285,13 +9255,13 @@
         <v>62247</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="M9" s="7">
         <v>123</v>
@@ -9300,13 +9270,13 @@
         <v>106373</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9321,13 +9291,13 @@
         <v>5295</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>89</v>
+        <v>675</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>682</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -9336,13 +9306,13 @@
         <v>12454</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>684</v>
+        <v>508</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -9351,13 +9321,13 @@
         <v>17749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>686</v>
+        <v>557</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9413,7 +9383,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -9425,13 +9395,13 @@
         <v>292095</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="H12" s="7">
         <v>488</v>
@@ -9440,13 +9410,13 @@
         <v>335506</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="M12" s="7">
         <v>820</v>
@@ -9455,13 +9425,13 @@
         <v>627601</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9476,13 +9446,13 @@
         <v>15390</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -9491,13 +9461,13 @@
         <v>21243</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>691</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -9506,13 +9476,13 @@
         <v>36633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9527,13 +9497,13 @@
         <v>12669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>706</v>
+        <v>458</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -9542,13 +9512,13 @@
         <v>13820</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>708</v>
+        <v>530</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>698</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -9557,13 +9527,13 @@
         <v>26489</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>710</v>
+        <v>573</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9631,13 +9601,13 @@
         <v>260752</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="H16" s="7">
         <v>484</v>
@@ -9646,13 +9616,13 @@
         <v>354908</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="M16" s="7">
         <v>708</v>
@@ -9661,13 +9631,13 @@
         <v>615659</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9682,13 +9652,13 @@
         <v>53320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="H17" s="7">
         <v>85</v>
@@ -9697,13 +9667,13 @@
         <v>55760</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>723</v>
+        <v>427</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="M17" s="7">
         <v>143</v>
@@ -9712,13 +9682,13 @@
         <v>109079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9733,13 +9703,13 @@
         <v>6936</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>727</v>
+        <v>417</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>728</v>
+        <v>90</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>729</v>
+        <v>366</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -9748,13 +9718,13 @@
         <v>14325</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>33</v>
+        <v>716</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>706</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -9763,13 +9733,13 @@
         <v>21260</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>281</v>
+        <v>718</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9837,13 +9807,13 @@
         <v>179642</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>723</v>
       </c>
       <c r="H20" s="7">
         <v>458</v>
@@ -9852,13 +9822,13 @@
         <v>241521</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>735</v>
+        <v>154</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="M20" s="7">
         <v>714</v>
@@ -9867,13 +9837,13 @@
         <v>421162</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9888,13 +9858,13 @@
         <v>17106</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -9903,13 +9873,13 @@
         <v>16157</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>573</v>
+        <v>733</v>
       </c>
       <c r="M21" s="7">
         <v>56</v>
@@ -9918,13 +9888,13 @@
         <v>33263</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9945,7 +9915,7 @@
         <v>166</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -9954,13 +9924,13 @@
         <v>452</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>748</v>
+        <v>620</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -9969,13 +9939,13 @@
         <v>452</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10043,13 +10013,13 @@
         <v>263935</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="H24" s="7">
         <v>433</v>
@@ -10058,13 +10028,13 @@
         <v>258088</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="M24" s="7">
         <v>787</v>
@@ -10073,13 +10043,13 @@
         <v>522023</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>759</v>
+        <v>726</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>283</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10094,13 +10064,13 @@
         <v>11165</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -10109,13 +10079,13 @@
         <v>14909</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>64</v>
+        <v>753</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>764</v>
+        <v>673</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -10124,13 +10094,13 @@
         <v>26075</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>661</v>
+        <v>754</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10145,13 +10115,13 @@
         <v>2123</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -10160,13 +10130,13 @@
         <v>1902</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>403</v>
+        <v>759</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>769</v>
+        <v>34</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -10175,13 +10145,13 @@
         <v>4025</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>578</v>
+        <v>84</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>89</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>770</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10249,13 +10219,13 @@
         <v>539673</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>689</v>
+        <v>760</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H28" s="7">
         <v>840</v>
@@ -10264,13 +10234,13 @@
         <v>717058</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>100</v>
+        <v>763</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="M28" s="7">
         <v>1357</v>
@@ -10279,13 +10249,13 @@
         <v>1256731</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>775</v>
+        <v>518</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10300,13 +10270,13 @@
         <v>46977</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>616</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>778</v>
+        <v>505</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="H29" s="7">
         <v>69</v>
@@ -10315,13 +10285,13 @@
         <v>52242</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>760</v>
+        <v>637</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -10330,13 +10300,13 @@
         <v>99219</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10351,13 +10321,13 @@
         <v>33962</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>139</v>
+        <v>774</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="H30" s="7">
         <v>39</v>
@@ -10366,13 +10336,13 @@
         <v>28151</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>788</v>
+        <v>750</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -10381,13 +10351,13 @@
         <v>62113</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>791</v>
+        <v>324</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10455,13 +10425,13 @@
         <v>812942</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>795</v>
+        <v>374</v>
       </c>
       <c r="H32" s="7">
         <v>978</v>
@@ -10470,13 +10440,13 @@
         <v>799574</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="M32" s="7">
         <v>1698</v>
@@ -10485,13 +10455,13 @@
         <v>1612516</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10506,13 +10476,13 @@
         <v>40775</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>188</v>
+        <v>384</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>110</v>
+        <v>789</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="H33" s="7">
         <v>67</v>
@@ -10524,10 +10494,10 @@
         <v>186</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>680</v>
+        <v>792</v>
       </c>
       <c r="M33" s="7">
         <v>104</v>
@@ -10536,13 +10506,13 @@
         <v>96595</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>517</v>
+        <v>793</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>475</v>
+        <v>184</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10557,13 +10527,13 @@
         <v>4628</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>807</v>
+        <v>87</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -10572,13 +10542,13 @@
         <v>9041</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>663</v>
+        <v>416</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>391</v>
+        <v>797</v>
       </c>
       <c r="M34" s="7">
         <v>15</v>
@@ -10587,13 +10557,13 @@
         <v>13669</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>659</v>
+        <v>799</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10661,13 +10631,13 @@
         <v>3070101</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="H36" s="7">
         <v>4814</v>
@@ -10676,28 +10646,28 @@
         <v>3445879</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="M36" s="7">
         <v>7876</v>
       </c>
       <c r="N36" s="7">
-        <v>6515980</v>
+        <v>6515981</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>816</v>
+        <v>179</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10712,13 +10682,13 @@
         <v>232710</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="H37" s="7">
         <v>401</v>
@@ -10727,13 +10697,13 @@
         <v>285535</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="M37" s="7">
         <v>641</v>
@@ -10742,13 +10712,13 @@
         <v>518245</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>601</v>
+        <v>769</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10763,13 +10733,13 @@
         <v>65613</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>827</v>
+        <v>593</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>293</v>
+        <v>817</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="H38" s="7">
         <v>111</v>
@@ -10778,13 +10748,13 @@
         <v>80144</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>686</v>
+        <v>111</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>829</v>
+        <v>192</v>
       </c>
       <c r="M38" s="7">
         <v>170</v>
@@ -10796,10 +10766,10 @@
         <v>113</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>88</v>
+        <v>819</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10841,7 +10811,7 @@
         <v>8687</v>
       </c>
       <c r="N39" s="7">
-        <v>7179983</v>
+        <v>7179984</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -10855,7 +10825,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED1082B7-5ECC-4EE0-B2CA-729C4470B5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B13F9F-15F3-4248-88F0-9DA88D656A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50163846-F8FD-4964-8195-59F39DB24A85}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D296647B-F922-4CCF-862B-2EEA7C10A6EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="837">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,35%)</t>
   </si>
@@ -803,7 +803,85 @@
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>76,11%</t>
@@ -953,1555 +1031,1525 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
   </si>
   <si>
     <t>91,33%</t>
   </si>
   <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
     <t>90,39%</t>
   </si>
   <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
 </sst>
 </file>
@@ -2913,7 +2961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CF0F47-262E-41D8-80B6-E9B5CE0DF83E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB65025-7E64-41EB-A40F-3CD1BC611C52}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4835,7 +4883,7 @@
         <v>3189</v>
       </c>
       <c r="D39" s="7">
-        <v>3250034</v>
+        <v>3250035</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -4903,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D58A7AE-74B5-4C36-ABFF-0869F01640A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26DCA07-4532-4B35-B0AF-B49396DFE935}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5021,43 +5069,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>238</v>
+      </c>
+      <c r="D4" s="7">
+        <v>248423</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="I4" s="7">
+        <v>227458</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>442</v>
+      </c>
+      <c r="N4" s="7">
+        <v>475881</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,43 +5120,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D5" s="7">
+        <v>30809</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="I5" s="7">
+        <v>41217</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="N5" s="7">
+        <v>72026</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,43 +5171,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7333</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5772</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N6" s="7">
+        <v>13105</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,43 +5222,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>274</v>
+      </c>
+      <c r="D7" s="7">
+        <v>286565</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>245</v>
+      </c>
+      <c r="I7" s="7">
+        <v>274447</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>519</v>
+      </c>
+      <c r="N7" s="7">
+        <v>561012</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,13 +5281,13 @@
         <v>384054</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="H8" s="7">
         <v>386</v>
@@ -5224,13 +5296,13 @@
         <v>421540</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="M8" s="7">
         <v>750</v>
@@ -5239,13 +5311,13 @@
         <v>805594</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,28 +5332,28 @@
         <v>94659</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="M9" s="7">
         <v>158</v>
@@ -5290,13 +5362,13 @@
         <v>173229</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5383,13 @@
         <v>25861</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5329,10 +5401,10 @@
         <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -5344,10 +5416,10 @@
         <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,7 +5446,7 @@
         <v>472</v>
       </c>
       <c r="I11" s="7">
-        <v>515810</v>
+        <v>515811</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5415,13 +5487,13 @@
         <v>310332</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="H12" s="7">
         <v>294</v>
@@ -5430,13 +5502,13 @@
         <v>314890</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="M12" s="7">
         <v>599</v>
@@ -5445,13 +5517,13 @@
         <v>625222</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5538,13 @@
         <v>9855</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5481,13 +5553,13 @@
         <v>21113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -5496,13 +5568,13 @@
         <v>30968</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5589,13 @@
         <v>2908</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5532,13 +5604,13 @@
         <v>3951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -5547,13 +5619,13 @@
         <v>6859</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,49 +5687,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>544</v>
+        <v>306</v>
       </c>
       <c r="D16" s="7">
-        <v>581035</v>
+        <v>332612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="H16" s="7">
-        <v>515</v>
+        <v>311</v>
       </c>
       <c r="I16" s="7">
-        <v>552466</v>
+        <v>325007</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
-        <v>1059</v>
+        <v>617</v>
       </c>
       <c r="N16" s="7">
-        <v>1133500</v>
+        <v>657619</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,49 +5738,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>61622</v>
+        <v>30813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>81078</v>
+        <v>39861</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="M17" s="7">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="N17" s="7">
-        <v>142700</v>
+        <v>70674</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,49 +5789,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>11386</v>
+        <v>4053</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>323</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="H18" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I18" s="7">
-        <v>20872</v>
+        <v>15100</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>185</v>
+        <v>347</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="M18" s="7">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N18" s="7">
-        <v>32258</v>
+        <v>19153</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,10 +5840,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>612</v>
+        <v>338</v>
       </c>
       <c r="D19" s="7">
-        <v>654043</v>
+        <v>367478</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5783,10 +5855,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>607</v>
+        <v>362</v>
       </c>
       <c r="I19" s="7">
-        <v>654416</v>
+        <v>379968</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5798,10 +5870,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1219</v>
+        <v>700</v>
       </c>
       <c r="N19" s="7">
-        <v>1308458</v>
+        <v>747446</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5827,13 +5899,13 @@
         <v>152570</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -5842,13 +5914,13 @@
         <v>153277</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="M20" s="7">
         <v>285</v>
@@ -5857,13 +5929,13 @@
         <v>305847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5950,13 @@
         <v>43345</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="H21" s="7">
         <v>47</v>
@@ -5893,13 +5965,13 @@
         <v>47233</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="M21" s="7">
         <v>88</v>
@@ -5908,13 +5980,13 @@
         <v>90579</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +6001,13 @@
         <v>16703</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -5944,13 +6016,13 @@
         <v>19080</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -5959,13 +6031,13 @@
         <v>35784</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6105,13 @@
         <v>259703</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="H24" s="7">
         <v>263</v>
@@ -6048,13 +6120,13 @@
         <v>273211</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="M24" s="7">
         <v>510</v>
@@ -6066,10 +6138,10 @@
         <v>74</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6156,13 @@
         <v>10229</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6099,13 +6171,13 @@
         <v>4021</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -6114,13 +6186,13 @@
         <v>14250</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,10 +6210,10 @@
         <v>79</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -6150,13 +6222,13 @@
         <v>1731</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -6165,13 +6237,13 @@
         <v>5780</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6239,13 +6311,13 @@
         <v>633164</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="H28" s="7">
         <v>600</v>
@@ -6254,13 +6326,13 @@
         <v>654312</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="M28" s="7">
         <v>1191</v>
@@ -6269,13 +6341,13 @@
         <v>1287475</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,13 +6362,13 @@
         <v>20041</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -6305,13 +6377,13 @@
         <v>29401</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -6320,13 +6392,13 @@
         <v>49442</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,7 +6413,7 @@
         <v>4690</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>391</v>
+        <v>276</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>86</v>
@@ -6356,13 +6428,13 @@
         <v>2875</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -6371,13 +6443,13 @@
         <v>7565</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6517,13 @@
         <v>660132</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="H32" s="7">
         <v>642</v>
@@ -6460,13 +6532,13 @@
         <v>699539</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="M32" s="7">
         <v>1248</v>
@@ -6475,13 +6547,13 @@
         <v>1359671</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6568,13 @@
         <v>100763</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>407</v>
+        <v>263</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="H33" s="7">
         <v>98</v>
@@ -6511,13 +6583,13 @@
         <v>106495</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>318</v>
+        <v>430</v>
       </c>
       <c r="M33" s="7">
         <v>192</v>
@@ -6526,13 +6598,13 @@
         <v>207258</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6619,13 @@
         <v>14057</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -6562,13 +6634,13 @@
         <v>9494</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="M34" s="7">
         <v>22</v>
@@ -6651,13 +6723,13 @@
         <v>2980987</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="H36" s="7">
         <v>2846</v>
@@ -6666,13 +6738,13 @@
         <v>3069236</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="M36" s="7">
         <v>5642</v>
@@ -6681,13 +6753,13 @@
         <v>6050223</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,13 +6774,13 @@
         <v>340515</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="H37" s="7">
         <v>340</v>
@@ -6717,13 +6789,13 @@
         <v>367910</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="M37" s="7">
         <v>658</v>
@@ -6732,13 +6804,13 @@
         <v>708425</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6825,13 @@
         <v>79654</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>435</v>
+        <v>278</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>193</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="H38" s="7">
         <v>67</v>
@@ -6768,10 +6840,10 @@
         <v>73704</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>437</v>
+        <v>275</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>85</v>
@@ -6786,10 +6858,10 @@
         <v>246</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,7 +6941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E726F9-A661-400F-984F-6DD0E29999EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E4D69F-C5C1-4306-ABCA-0BB1C03B4B90}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6886,7 +6958,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6993,13 +7065,13 @@
         <v>219159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
@@ -7011,10 +7083,10 @@
         <v>208</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="M4" s="7">
         <v>403</v>
@@ -7023,13 +7095,13 @@
         <v>431727</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,13 +7116,13 @@
         <v>54594</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="H5" s="7">
         <v>55</v>
@@ -7059,13 +7131,13 @@
         <v>56548</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="M5" s="7">
         <v>104</v>
@@ -7074,13 +7146,13 @@
         <v>111142</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7167,13 @@
         <v>11898</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>458</v>
+        <v>348</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>459</v>
+        <v>264</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -7110,13 +7182,13 @@
         <v>14385</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -7125,13 +7197,13 @@
         <v>26283</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>248</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,13 +7271,13 @@
         <v>339992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="H8" s="7">
         <v>331</v>
@@ -7214,13 +7286,13 @@
         <v>354927</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="M8" s="7">
         <v>653</v>
@@ -7229,13 +7301,13 @@
         <v>694919</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,13 +7322,13 @@
         <v>99626</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -7265,13 +7337,13 @@
         <v>98172</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="M9" s="7">
         <v>184</v>
@@ -7280,13 +7352,13 @@
         <v>197799</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,13 +7373,13 @@
         <v>61855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -7316,13 +7388,13 @@
         <v>65875</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="M10" s="7">
         <v>117</v>
@@ -7331,13 +7403,13 @@
         <v>127730</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,13 +7477,13 @@
         <v>291555</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="H12" s="7">
         <v>306</v>
@@ -7420,13 +7492,13 @@
         <v>310055</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>173</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="M12" s="7">
         <v>612</v>
@@ -7435,13 +7507,13 @@
         <v>601610</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,13 +7528,13 @@
         <v>25318</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -7471,13 +7543,13 @@
         <v>22708</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -7486,13 +7558,13 @@
         <v>48026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>314</v>
+        <v>521</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>506</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7579,13 @@
         <v>795</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -7522,13 +7594,13 @@
         <v>3546</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -7537,10 +7609,10 @@
         <v>4341</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>111</v>
@@ -7611,13 +7683,13 @@
         <v>333281</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="H16" s="7">
         <v>300</v>
@@ -7626,13 +7698,13 @@
         <v>324376</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="M16" s="7">
         <v>618</v>
@@ -7641,13 +7713,13 @@
         <v>657657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>521</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,13 +7734,13 @@
         <v>24336</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -7677,13 +7749,13 @@
         <v>45183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>525</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -7692,13 +7764,13 @@
         <v>69519</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,13 +7785,13 @@
         <v>8205</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>194</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -7728,13 +7800,13 @@
         <v>11500</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -7743,13 +7815,13 @@
         <v>19705</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7889,13 @@
         <v>178085</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="H20" s="7">
         <v>190</v>
@@ -7832,13 +7904,13 @@
         <v>184938</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="M20" s="7">
         <v>368</v>
@@ -7847,13 +7919,13 @@
         <v>363023</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7940,13 @@
         <v>32147</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -7883,13 +7955,13 @@
         <v>25516</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="M21" s="7">
         <v>58</v>
@@ -7898,13 +7970,13 @@
         <v>57663</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,7 +7991,7 @@
         <v>989</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>32</v>
@@ -7934,13 +8006,13 @@
         <v>8133</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -7949,13 +8021,13 @@
         <v>9122</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>194</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8095,13 @@
         <v>248225</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="H24" s="7">
         <v>250</v>
@@ -8038,13 +8110,13 @@
         <v>259819</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="M24" s="7">
         <v>494</v>
@@ -8053,13 +8125,13 @@
         <v>508045</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,13 +8146,13 @@
         <v>14898</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -8089,13 +8161,13 @@
         <v>12261</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -8104,7 +8176,7 @@
         <v>27158</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>110</v>
@@ -8131,7 +8203,7 @@
         <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8229,10 +8301,10 @@
         <v>520218</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>232</v>
@@ -8244,13 +8316,13 @@
         <v>540487</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="M28" s="7">
         <v>966</v>
@@ -8259,13 +8331,13 @@
         <v>1060705</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8280,10 +8352,10 @@
         <v>107661</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>26</v>
@@ -8295,13 +8367,13 @@
         <v>110859</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="M29" s="7">
         <v>198</v>
@@ -8310,13 +8382,13 @@
         <v>218520</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,13 +8403,13 @@
         <v>20271</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -8346,13 +8418,13 @@
         <v>32082</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="M30" s="7">
         <v>48</v>
@@ -8361,13 +8433,13 @@
         <v>52353</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8435,13 +8507,13 @@
         <v>722075</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="H32" s="7">
         <v>694</v>
@@ -8453,10 +8525,10 @@
         <v>148</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="M32" s="7">
         <v>1389</v>
@@ -8465,13 +8537,13 @@
         <v>1478891</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8489,10 +8561,10 @@
         <v>112</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="H33" s="7">
         <v>55</v>
@@ -8501,13 +8573,13 @@
         <v>62085</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>459</v>
+        <v>264</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="M33" s="7">
         <v>100</v>
@@ -8516,13 +8588,13 @@
         <v>108206</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8537,13 +8609,13 @@
         <v>5505</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>391</v>
+        <v>276</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -8552,7 +8624,7 @@
         <v>976</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>32</v>
@@ -8567,13 +8639,13 @@
         <v>6481</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8641,13 +8713,13 @@
         <v>2852589</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="H36" s="7">
         <v>2781</v>
@@ -8656,13 +8728,13 @@
         <v>2943986</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="M36" s="7">
         <v>5503</v>
@@ -8674,10 +8746,10 @@
         <v>17</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8692,13 +8764,13 @@
         <v>404701</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="H37" s="7">
         <v>403</v>
@@ -8707,13 +8779,13 @@
         <v>433332</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="M37" s="7">
         <v>786</v>
@@ -8722,13 +8794,13 @@
         <v>838033</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8749,7 +8821,7 @@
         <v>85</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="H38" s="7">
         <v>127</v>
@@ -8758,13 +8830,13 @@
         <v>136497</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="M38" s="7">
         <v>226</v>
@@ -8773,13 +8845,13 @@
         <v>246015</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8859,7 +8931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3B0596-66C9-4DC2-A7A3-6A9F09527FF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A400D2-D5CF-45B9-B1EE-0D6859B6CD68}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8876,7 +8948,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8980,46 +9052,46 @@
         <v>327</v>
       </c>
       <c r="D4" s="7">
-        <v>256447</v>
+        <v>306656</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="H4" s="7">
         <v>524</v>
       </c>
       <c r="I4" s="7">
-        <v>264246</v>
+        <v>282085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="M4" s="7">
         <v>851</v>
       </c>
       <c r="N4" s="7">
-        <v>520692</v>
+        <v>588740</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9031,46 +9103,46 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>3851</v>
+        <v>4787</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>555</v>
+        <v>667</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>370</v>
+        <v>668</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>7157</v>
+        <v>7550</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>535</v>
+        <v>669</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>11008</v>
+        <v>12337</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>34</v>
+        <v>671</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>654</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9091,7 +9163,7 @@
         <v>166</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9106,7 +9178,7 @@
         <v>166</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9121,7 +9193,7 @@
         <v>166</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9133,7 +9205,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -9148,7 +9220,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -9163,7 +9235,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -9186,46 +9258,46 @@
         <v>332</v>
       </c>
       <c r="D8" s="7">
-        <v>464618</v>
+        <v>465873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="H8" s="7">
         <v>609</v>
       </c>
       <c r="I8" s="7">
-        <v>474979</v>
+        <v>441310</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>662</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="M8" s="7">
         <v>941</v>
       </c>
       <c r="N8" s="7">
-        <v>939596</v>
+        <v>907183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>426</v>
+        <v>680</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9237,46 +9309,46 @@
         <v>41</v>
       </c>
       <c r="D9" s="7">
-        <v>44126</v>
+        <v>42318</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
       </c>
       <c r="I9" s="7">
-        <v>62247</v>
+        <v>57497</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="M9" s="7">
         <v>123</v>
       </c>
       <c r="N9" s="7">
-        <v>106373</v>
+        <v>99815</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>672</v>
+        <v>539</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9288,46 +9360,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>5295</v>
+        <v>5122</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>691</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>12454</v>
+        <v>11665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>508</v>
+        <v>87</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>17749</v>
+        <v>16787</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>557</v>
+        <v>695</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>697</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9339,7 +9411,7 @@
         <v>378</v>
       </c>
       <c r="D11" s="7">
-        <v>514039</v>
+        <v>513313</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -9354,7 +9426,7 @@
         <v>710</v>
       </c>
       <c r="I11" s="7">
-        <v>549679</v>
+        <v>510472</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -9369,7 +9441,7 @@
         <v>1088</v>
       </c>
       <c r="N11" s="7">
-        <v>1063718</v>
+        <v>1023785</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -9392,46 +9464,46 @@
         <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>292095</v>
+        <v>286095</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>679</v>
+        <v>172</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>681</v>
+        <v>509</v>
       </c>
       <c r="H12" s="7">
         <v>488</v>
       </c>
       <c r="I12" s="7">
-        <v>335506</v>
+        <v>313867</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="M12" s="7">
         <v>820</v>
       </c>
       <c r="N12" s="7">
-        <v>627601</v>
+        <v>599962</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9443,46 +9515,46 @@
         <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>15390</v>
+        <v>15309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>689</v>
+        <v>108</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>21243</v>
+        <v>19844</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
       </c>
       <c r="N13" s="7">
-        <v>36633</v>
+        <v>35154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>693</v>
+        <v>316</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9494,46 +9566,46 @@
         <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>12669</v>
+        <v>12622</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>458</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>13820</v>
+        <v>12912</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>714</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
       </c>
       <c r="N14" s="7">
-        <v>26489</v>
+        <v>25534</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>573</v>
+        <v>717</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9545,7 +9617,7 @@
         <v>358</v>
       </c>
       <c r="D15" s="7">
-        <v>320154</v>
+        <v>314026</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -9560,7 +9632,7 @@
         <v>532</v>
       </c>
       <c r="I15" s="7">
-        <v>370569</v>
+        <v>346624</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -9575,7 +9647,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>690723</v>
+        <v>660650</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -9598,46 +9670,46 @@
         <v>224</v>
       </c>
       <c r="D16" s="7">
-        <v>260752</v>
+        <v>252925</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="H16" s="7">
         <v>484</v>
       </c>
       <c r="I16" s="7">
-        <v>354908</v>
+        <v>407987</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="M16" s="7">
         <v>708</v>
       </c>
       <c r="N16" s="7">
-        <v>615659</v>
+        <v>660911</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>706</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9649,46 +9721,46 @@
         <v>58</v>
       </c>
       <c r="D17" s="7">
-        <v>53320</v>
+        <v>51736</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>584</v>
+        <v>727</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="H17" s="7">
         <v>85</v>
       </c>
       <c r="I17" s="7">
-        <v>55760</v>
+        <v>51329</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>427</v>
+        <v>731</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="M17" s="7">
         <v>143</v>
       </c>
       <c r="N17" s="7">
-        <v>109079</v>
+        <v>103065</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9700,46 +9772,46 @@
         <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>6936</v>
+        <v>6708</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>417</v>
+        <v>736</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>737</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>366</v>
+        <v>738</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
       </c>
       <c r="I18" s="7">
-        <v>14325</v>
+        <v>13080</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>387</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>717</v>
+        <v>142</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
       </c>
       <c r="N18" s="7">
-        <v>21260</v>
+        <v>19788</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9751,7 +9823,7 @@
         <v>290</v>
       </c>
       <c r="D19" s="7">
-        <v>321007</v>
+        <v>311369</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -9766,7 +9838,7 @@
         <v>591</v>
       </c>
       <c r="I19" s="7">
-        <v>424992</v>
+        <v>472396</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -9781,7 +9853,7 @@
         <v>881</v>
       </c>
       <c r="N19" s="7">
-        <v>745999</v>
+        <v>783764</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -9804,46 +9876,46 @@
         <v>256</v>
       </c>
       <c r="D20" s="7">
-        <v>179642</v>
+        <v>163289</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="H20" s="7">
         <v>458</v>
       </c>
       <c r="I20" s="7">
-        <v>241521</v>
+        <v>242503</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>746</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="M20" s="7">
         <v>714</v>
       </c>
       <c r="N20" s="7">
-        <v>421162</v>
+        <v>405792</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>726</v>
+        <v>748</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9855,46 +9927,46 @@
         <v>23</v>
       </c>
       <c r="D21" s="7">
-        <v>17106</v>
+        <v>15453</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>348</v>
+        <v>751</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>729</v>
+        <v>548</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>730</v>
+        <v>752</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
       </c>
       <c r="I21" s="7">
-        <v>16157</v>
+        <v>14602</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
       <c r="M21" s="7">
         <v>56</v>
       </c>
       <c r="N21" s="7">
-        <v>33263</v>
+        <v>30055</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>735</v>
+        <v>756</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>736</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9915,37 +9987,37 @@
         <v>166</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>620</v>
+        <v>759</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>738</v>
+        <v>197</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>740</v>
+        <v>761</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9957,7 +10029,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -9972,7 +10044,7 @@
         <v>492</v>
       </c>
       <c r="I23" s="7">
-        <v>258130</v>
+        <v>257518</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -9987,7 +10059,7 @@
         <v>771</v>
       </c>
       <c r="N23" s="7">
-        <v>454877</v>
+        <v>436260</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -10010,46 +10082,46 @@
         <v>354</v>
       </c>
       <c r="D24" s="7">
-        <v>263935</v>
+        <v>256768</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>741</v>
+        <v>762</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
       <c r="H24" s="7">
         <v>433</v>
       </c>
       <c r="I24" s="7">
-        <v>258088</v>
+        <v>240871</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>744</v>
+        <v>765</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
       <c r="M24" s="7">
         <v>787</v>
       </c>
       <c r="N24" s="7">
-        <v>522023</v>
+        <v>497638</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>726</v>
+        <v>769</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>748</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10061,46 +10133,46 @@
         <v>14</v>
       </c>
       <c r="D25" s="7">
-        <v>11165</v>
+        <v>10874</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
       </c>
       <c r="I25" s="7">
-        <v>14909</v>
+        <v>13746</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>752</v>
+        <v>773</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>673</v>
+        <v>775</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
       </c>
       <c r="N25" s="7">
-        <v>26075</v>
+        <v>24620</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>754</v>
+        <v>142</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>755</v>
+        <v>653</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>756</v>
+        <v>776</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10112,28 +10184,28 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>2123</v>
+        <v>1994</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>757</v>
+        <v>589</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>758</v>
+        <v>246</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>1902</v>
+        <v>1772</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>34</v>
@@ -10142,16 +10214,16 @@
         <v>6</v>
       </c>
       <c r="N26" s="7">
-        <v>4025</v>
+        <v>3766</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>89</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>37</v>
+        <v>778</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10163,7 +10235,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -10178,7 +10250,7 @@
         <v>459</v>
       </c>
       <c r="I27" s="7">
-        <v>274900</v>
+        <v>256389</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -10193,7 +10265,7 @@
         <v>830</v>
       </c>
       <c r="N27" s="7">
-        <v>552123</v>
+        <v>526025</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -10216,46 +10288,46 @@
         <v>517</v>
       </c>
       <c r="D28" s="7">
-        <v>539673</v>
+        <v>536387</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>761</v>
+        <v>235</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="H28" s="7">
         <v>840</v>
       </c>
       <c r="I28" s="7">
-        <v>717058</v>
+        <v>768728</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="M28" s="7">
         <v>1357</v>
       </c>
       <c r="N28" s="7">
-        <v>1256731</v>
+        <v>1305115</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>518</v>
+        <v>784</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>767</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10267,46 +10339,46 @@
         <v>49</v>
       </c>
       <c r="D29" s="7">
-        <v>46977</v>
+        <v>46083</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>505</v>
+        <v>786</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="H29" s="7">
         <v>69</v>
       </c>
       <c r="I29" s="7">
-        <v>52242</v>
+        <v>48181</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>637</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
       </c>
       <c r="N29" s="7">
-        <v>99219</v>
+        <v>94263</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>771</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>773</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10318,46 +10390,46 @@
         <v>27</v>
       </c>
       <c r="D30" s="7">
-        <v>33962</v>
+        <v>34340</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="H30" s="7">
         <v>39</v>
       </c>
       <c r="I30" s="7">
-        <v>28151</v>
+        <v>26080</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>777</v>
+        <v>300</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>750</v>
+        <v>794</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
       </c>
       <c r="N30" s="7">
-        <v>62113</v>
+        <v>60421</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10369,7 +10441,7 @@
         <v>593</v>
       </c>
       <c r="D31" s="7">
-        <v>620612</v>
+        <v>616810</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -10384,7 +10456,7 @@
         <v>948</v>
       </c>
       <c r="I31" s="7">
-        <v>797451</v>
+        <v>842989</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -10399,7 +10471,7 @@
         <v>1541</v>
       </c>
       <c r="N31" s="7">
-        <v>1418063</v>
+        <v>1459799</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -10422,46 +10494,46 @@
         <v>720</v>
       </c>
       <c r="D32" s="7">
-        <v>812942</v>
+        <v>889149</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>374</v>
+        <v>800</v>
       </c>
       <c r="H32" s="7">
         <v>978</v>
       </c>
       <c r="I32" s="7">
-        <v>799574</v>
+        <v>660615</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="M32" s="7">
         <v>1698</v>
       </c>
       <c r="N32" s="7">
-        <v>1612516</v>
+        <v>1549764</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10473,46 +10545,46 @@
         <v>37</v>
       </c>
       <c r="D33" s="7">
-        <v>40775</v>
+        <v>34719</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>384</v>
+        <v>807</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>789</v>
+        <v>87</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>790</v>
+        <v>584</v>
       </c>
       <c r="H33" s="7">
         <v>67</v>
       </c>
       <c r="I33" s="7">
-        <v>55820</v>
+        <v>46213</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>186</v>
+        <v>808</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>791</v>
+        <v>608</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="M33" s="7">
         <v>104</v>
       </c>
       <c r="N33" s="7">
-        <v>96595</v>
+        <v>80931</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>184</v>
+        <v>811</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10524,46 +10596,46 @@
         <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>4628</v>
+        <v>3943</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>795</v>
+        <v>412</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>796</v>
+        <v>760</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>87</v>
+        <v>346</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
       </c>
       <c r="I34" s="7">
-        <v>9041</v>
+        <v>7609</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>371</v>
+        <v>813</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>416</v>
+        <v>82</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="M34" s="7">
         <v>15</v>
       </c>
       <c r="N34" s="7">
-        <v>13669</v>
+        <v>11552</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>798</v>
+        <v>191</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10575,7 +10647,7 @@
         <v>761</v>
       </c>
       <c r="D35" s="7">
-        <v>858345</v>
+        <v>927810</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -10590,7 +10662,7 @@
         <v>1056</v>
       </c>
       <c r="I35" s="7">
-        <v>864435</v>
+        <v>714437</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -10605,7 +10677,7 @@
         <v>1817</v>
       </c>
       <c r="N35" s="7">
-        <v>1722780</v>
+        <v>1642247</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -10628,46 +10700,46 @@
         <v>3062</v>
       </c>
       <c r="D36" s="7">
-        <v>3070101</v>
+        <v>3157141</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="H36" s="7">
         <v>4814</v>
       </c>
       <c r="I36" s="7">
-        <v>3445879</v>
+        <v>3357966</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>806</v>
+        <v>769</v>
       </c>
       <c r="M36" s="7">
         <v>7876</v>
       </c>
       <c r="N36" s="7">
-        <v>6515981</v>
+        <v>6515106</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>179</v>
+        <v>822</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10679,46 +10751,46 @@
         <v>240</v>
       </c>
       <c r="D37" s="7">
-        <v>232710</v>
+        <v>221278</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>811</v>
+        <v>542</v>
       </c>
       <c r="H37" s="7">
         <v>401</v>
       </c>
       <c r="I37" s="7">
-        <v>285535</v>
+        <v>258962</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>813</v>
+        <v>625</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="M37" s="7">
         <v>641</v>
       </c>
       <c r="N37" s="7">
-        <v>518245</v>
+        <v>480240</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>769</v>
+        <v>830</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10730,46 +10802,46 @@
         <v>59</v>
       </c>
       <c r="D38" s="7">
-        <v>65613</v>
+        <v>64730</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>593</v>
+        <v>457</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>817</v>
+        <v>794</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="H38" s="7">
         <v>111</v>
       </c>
       <c r="I38" s="7">
-        <v>80144</v>
+        <v>73532</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>437</v>
+        <v>833</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>111</v>
+        <v>547</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>192</v>
+        <v>834</v>
       </c>
       <c r="M38" s="7">
         <v>170</v>
       </c>
       <c r="N38" s="7">
-        <v>145757</v>
+        <v>138262</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>113</v>
+        <v>835</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>819</v>
+        <v>740</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10781,7 +10853,7 @@
         <v>3361</v>
       </c>
       <c r="D39" s="7">
-        <v>3368424</v>
+        <v>3443150</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -10796,7 +10868,7 @@
         <v>5326</v>
       </c>
       <c r="I39" s="7">
-        <v>3811559</v>
+        <v>3690459</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -10811,7 +10883,7 @@
         <v>8687</v>
       </c>
       <c r="N39" s="7">
-        <v>7179984</v>
+        <v>7133608</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
